--- a/src/test/resources/data/jdgroupTA472.xlsx
+++ b/src/test/resources/data/jdgroupTA472.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23628"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8385E9B0-3816-4CAA-98E6-20098138B768}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78ADF349-2BAA-4446-B524-E9A4B5DA40D3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -205,7 +205,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3832" uniqueCount="870">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3833" uniqueCount="872">
   <si>
     <t>testSuitID</t>
   </si>
@@ -2823,6 +2823,12 @@
   </si>
   <si>
     <t>Clear Wish List with added product</t>
+  </si>
+  <si>
+    <t>TylerWilson@armyspy.com</t>
+  </si>
+  <si>
+    <t>Ottawa Dining Chair</t>
   </si>
 </sst>
 </file>
@@ -6832,10 +6838,10 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomRight" activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -10633,7 +10639,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
@@ -11307,7 +11315,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
@@ -11404,10 +11414,10 @@
         <v>413</v>
       </c>
       <c r="E4" s="57" t="s">
-        <v>649</v>
+        <v>870</v>
       </c>
       <c r="F4" s="84" t="s">
-        <v>662</v>
+        <v>415</v>
       </c>
       <c r="G4" s="72">
         <v>11</v>
@@ -11523,6 +11533,7 @@
     <hyperlink ref="E3" r:id="rId2" xr:uid="{00000000-0004-0000-1900-000001000000}"/>
     <hyperlink ref="E4:E7" r:id="rId3" display="watlevi41@gmail.com" xr:uid="{00000000-0004-0000-1900-000002000000}"/>
     <hyperlink ref="E8" r:id="rId4" xr:uid="{00000000-0004-0000-1900-000003000000}"/>
+    <hyperlink ref="E4" r:id="rId5" xr:uid="{AC68D215-FF35-4BAC-9073-0A03340EFC7F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11533,7 +11544,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -19019,7 +19030,7 @@
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -19072,7 +19083,7 @@
         <v>592</v>
       </c>
       <c r="E2" s="188" t="s">
-        <v>835</v>
+        <v>871</v>
       </c>
       <c r="F2" s="107">
         <v>11</v>
@@ -19100,9 +19111,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3100-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:F2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -19466,10 +19475,10 @@
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomRight" activeCell="A29" sqref="A29:XFD29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -20028,25 +20037,25 @@
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="B13:B16">
-    <cfRule type="duplicateValues" dxfId="19" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:A12">
-    <cfRule type="duplicateValues" dxfId="18" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:B12">
-    <cfRule type="duplicateValues" dxfId="17" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19:B21">
-    <cfRule type="duplicateValues" dxfId="16" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26">
-    <cfRule type="duplicateValues" dxfId="15" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="duplicateValues" dxfId="14" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28">
-    <cfRule type="duplicateValues" dxfId="13" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="2"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" xr:uid="{00000000-0004-0000-3500-000000000000}"/>
@@ -20317,7 +20326,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -21928,10 +21937,10 @@
   <dimension ref="A1:Z94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="H50" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C40" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K55" sqref="K55"/>
+      <selection pane="bottomRight" activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -26563,10 +26572,10 @@
   <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A16" sqref="A16:XFD16"/>
+      <selection pane="bottomRight" activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -27106,13 +27115,15 @@
       <c r="F16" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="G16" s="57" t="s">
-        <v>800</v>
-      </c>
-      <c r="H16" s="57" t="s">
-        <v>866</v>
-      </c>
-      <c r="I16" s="57"/>
+      <c r="G16" s="116" t="s">
+        <v>859</v>
+      </c>
+      <c r="H16" s="116" t="s">
+        <v>860</v>
+      </c>
+      <c r="I16" s="57" t="s">
+        <v>861</v>
+      </c>
       <c r="J16" s="57" t="s">
         <v>800</v>
       </c>
@@ -27233,8 +27244,8 @@
     <hyperlink ref="J17" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{57A98E08-04DB-45FF-A806-9123549F5CE0}"/>
     <hyperlink ref="I17" location="'ic_RemoveFromcart++'!A1" display="ic_RemoveFromcart" xr:uid="{16B6831B-82BB-40E5-87B5-C08EEA6B306D}"/>
     <hyperlink ref="G13" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{BB191D47-E405-4FC1-B6E6-DD2C59165CE5}"/>
-    <hyperlink ref="H16" location="'IC_WishlistToCart++'!A1" display="IC_WishlistToCart" xr:uid="{66444083-2163-4E37-A1BB-8C1CC3422CAC}"/>
-    <hyperlink ref="G16" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{F0126345-5184-4769-9238-BE6C57A3F4D9}"/>
+    <hyperlink ref="G16" location="'ic_NavigetoWishlist++'!A1" display="ic_NavigetoWishlist" xr:uid="{B4B594A1-7B2E-43DA-9D35-BBB7B06C4B3C}"/>
+    <hyperlink ref="I16" location="'ic_RemoveFromcart++'!A1" display="ic_RemoveFromcart" xr:uid="{421B93B9-0639-470F-A255-F819FAA729E7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/src/test/resources/data/jdgroupTA472.xlsx
+++ b/src/test/resources/data/jdgroupTA472.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23628"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78ADF349-2BAA-4446-B524-E9A4B5DA40D3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D756CB7D-37F8-4463-89A9-854D5D359235}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26572,10 +26572,10 @@
   <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K16" sqref="K16"/>
+      <selection pane="bottomRight" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -26962,7 +26962,7 @@
       </c>
       <c r="E11" s="56"/>
       <c r="F11" s="111" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G11" s="57" t="s">
         <v>859</v>
@@ -27113,7 +27113,7 @@
       </c>
       <c r="E16" s="56"/>
       <c r="F16" s="111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G16" s="116" t="s">
         <v>859</v>
